--- a/Predictive-Maintenance-System-master/Phase_1/Validation_Comparison.xlsx
+++ b/Predictive-Maintenance-System-master/Phase_1/Validation_Comparison.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connorlof\Documents\School\Fall 2017\Software Eng\Outline Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Trees" sheetId="1" r:id="rId1"/>
     <sheet name="Bagged vs Boosted" sheetId="11" r:id="rId2"/>
     <sheet name="Summaries" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -85,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -156,9 +154,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -167,6 +162,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -229,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -475,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,30 +483,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="4" width="20" style="3"/>
     <col min="5" max="5" width="3.6640625" style="5" customWidth="1"/>
     <col min="6" max="10" width="20" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -549,7 +547,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -569,7 +567,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -589,7 +587,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -609,7 +607,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -629,7 +627,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -649,7 +647,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -669,7 +667,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -689,7 +687,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -709,7 +707,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -729,33 +727,33 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f>AVERAGE(B3:B12)</f>
         <v>0.99539999999999984</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" ref="C13:G13" si="0">AVERAGE(C3:C12)</f>
         <v>0.98390000000000022</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>0.97139999999999982</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>0.99649999999999994</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0.99630000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -775,7 +773,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -795,7 +793,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -815,7 +813,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -835,7 +833,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -855,7 +853,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -875,7 +873,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -895,7 +893,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -915,7 +913,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -935,7 +933,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -955,33 +953,33 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <f>AVERAGE(B14:B23)</f>
         <v>0.99600000000000011</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f>AVERAGE(C14:C23)</f>
         <v>0.98429999999999995</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>AVERAGE(D14:D23)</f>
         <v>0.97280000000000011</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
         <f>AVERAGE(F14:F23)</f>
         <v>0.99670000000000003</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f>AVERAGE(G14:G23)</f>
         <v>0.99670000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1181,33 +1179,33 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <f>AVERAGE(B25:B34)</f>
         <v>0.99500000000000011</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f>AVERAGE(C25:C34)</f>
         <v>0.98400000000000021</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <f>AVERAGE(D25:D34)</f>
         <v>0.97249999999999992</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
         <f>AVERAGE(F25:F34)</f>
         <v>0.99599999999999989</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <f>AVERAGE(G25:G34)</f>
         <v>0.99630000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1216,28 +1214,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <f>AVERAGE(B3:B12,B14:B23,B25:B34)</f>
         <v>0.99546666666666606</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <f t="shared" ref="C37:G37" si="1">AVERAGE(C3:C12,C14:C23,C25:C34)</f>
         <v>0.98406666666666653</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>0.9722333333333335</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
         <f t="shared" si="1"/>
         <v>0.99639999999999973</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <f t="shared" si="1"/>
         <v>0.99643333333333328</v>
       </c>
@@ -1247,7 +1245,11 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1255,35 +1257,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="5" width="16.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="4" max="5" width="16.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
     <col min="7" max="8" width="16.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>0.997</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>0.996</v>
       </c>
@@ -1343,7 +1345,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>0.996</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>0.997</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>0.997</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>0.997</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>0.996</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>0.996</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>0.997</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>0.996</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>0.996</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>0.996</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>0.997</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>0.997</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>0.997</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>0.996</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>0.996</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>0.997</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>0.997</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>0.996</v>
       </c>
@@ -1703,30 +1705,30 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+    <row r="23" spans="1:9">
+      <c r="A23" s="14">
         <f>AVERAGE(A3:A22)</f>
         <v>0.99649999999999994</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <f>AVERAGE(B3:B22)</f>
         <v>0.99635000000000018</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15">
-        <f t="shared" ref="C23:E23" si="0">AVERAGE(D3:D22)</f>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
+        <f t="shared" ref="D23:E23" si="0">AVERAGE(D3:D22)</f>
         <v>0.9967999999999998</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <f t="shared" si="0"/>
         <v>0.99669999999999992</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <f t="shared" ref="G23" si="1">AVERAGE(G3:G22)</f>
         <v>0.99609999999999987</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f t="shared" ref="H23" si="2">AVERAGE(H3:H22)</f>
         <v>0.99615000000000009</v>
       </c>
@@ -1741,7 +1743,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1753,85 +1759,90 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.99539999999999984</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>0.99649999999999994</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0.99630000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.99600000000000011</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>0.99670000000000003</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.99670000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>0.99500000000000011</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.99599999999999989</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.99630000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>0.99546666666666606</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.99639999999999973</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.99643333333333328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>